--- a/Lab-02/graphs.xlsx
+++ b/Lab-02/graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lehoanganh/Desktop/HoangAnh/SecondYear/HK1/DSA/LAB/Lab-02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lehoanganh/Desktop/HoangAnh/SecondYear/FirstTerm/DSA/LAB/Lab-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6C81A-8C00-844B-A58A-23648FCC3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96107A9B-76FF-7946-A793-C9AF78162B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{13016F43-4D25-AF49-B269-AAB0CDF649E8}"/>
   </bookViews>
@@ -18,7 +18,110 @@
     <sheet name="reverse" sheetId="3" r:id="rId3"/>
     <sheet name="nearly" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">random!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">random!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">random!$A$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">random!$A$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">random!$B$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">random!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">random!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">random!$B$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">random!$B$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">random!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">random!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">random!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">random!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">random!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">random!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">random!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">random!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">random!$B$9:$F$9</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">random!$A$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">random!$A$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">random!$A$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">random!$A$13</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">random!$A$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">random!$A$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">random!$A$3</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">random!$A$4</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">random!$A$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">random!$A$6</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">random!$A$7</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">random!$A$8</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">random!$A$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">random!$B$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">random!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">random!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">random!$A$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">random!$B$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">random!$B$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">random!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">random!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">random!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">random!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">random!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">random!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">random!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">random!$B$9:$F$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">random!$A$3</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">random!$A$10</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">random!$A$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">random!$A$12</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">random!$A$13</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">random!$A$2</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">random!$A$3</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">random!$A$4</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">random!$A$5</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">random!$A$6</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">random!$A$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">random!$A$4</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">random!$A$8</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">random!$A$9</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">random!$B$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">random!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">random!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">random!$B$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">random!$B$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">random!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">random!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">random!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">random!$A$5</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">random!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">random!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">random!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">random!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">random!$B$9:$F$9</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">reverse!$A$10</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">reverse!$A$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">reverse!$A$12</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">reverse!$A$13</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">reverse!$A$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">random!$A$6</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">reverse!$A$3</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">reverse!$A$4</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">reverse!$A$5</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">reverse!$A$6</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">reverse!$A$7</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">reverse!$A$8</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">reverse!$A$9</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">reverse!$B$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">reverse!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">reverse!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">random!$A$7</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">reverse!$B$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">reverse!$B$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">reverse!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">reverse!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">reverse!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">reverse!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">reverse!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">reverse!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">reverse!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">reverse!$B$9:$F$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Selection</t>
   </si>
@@ -51,13 +154,28 @@
     <t>Heapsort</t>
   </si>
   <si>
-    <t>Mergesort</t>
-  </si>
-  <si>
     <t>Quicksort</t>
   </si>
   <si>
     <t>Radix</t>
+  </si>
+  <si>
+    <t>Binary Insertion</t>
+  </si>
+  <si>
+    <t>Shaker</t>
+  </si>
+  <si>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>Flashsort</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Shellsort</t>
   </si>
 </sst>
 </file>
@@ -117,12 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -133,6 +250,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF745806"/>
       <color rgb="FFFF0078"/>
     </mruColors>
   </colors>
@@ -179,9 +297,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="vi-VN"/>
-              <a:t>Đầu vào ngẫu nhiên</a:t>
+              <a:rPr lang="en-US" sz="2500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Đầu</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vào ngẫu nhiên</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -234,7 +366,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -242,14 +377,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -335,7 +470,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -412,7 +547,579 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Binary Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2989999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8707E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39372499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.451651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.537260000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8309999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33071299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2599209999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.165768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.55030099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5742000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26645600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4172259999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.027754000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247.34417099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shellsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8619999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5900000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6322000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2173000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0829999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.821E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4409999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.717E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9560000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8147E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4243999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -421,7 +1128,7 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -434,13 +1141,13 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -473,24 +1180,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>random!$B$4:$F$4</c:f>
+              <c:f>random!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8309999999999998E-2</c:v>
+                  <c:v>3.3199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33071299999999998</c:v>
+                  <c:v>1.222E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2599209999999998</c:v>
+                  <c:v>4.0080000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.165768</c:v>
+                  <c:v>1.4012999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>317.55030099999999</c:v>
+                  <c:v>4.5519999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,20 +1205,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63BD-1F42-9E56-B98DA0AE9CD9}"/>
+              <c16:uniqueId val="{00000008-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>random!$A$5</c:f>
+              <c:f>random!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heapsort</c:v>
+                  <c:v>Counting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,193 +1226,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>random!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>random!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.8400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.454E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0829999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.821E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4409999999999995E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63BD-1F42-9E56-B98DA0AE9CD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0078"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0078"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>random!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>random!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.5899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.717E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9560000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8147E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4243999999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-711E-664E-B791-421CF581F55D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="745806"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -718,7 +1239,7 @@
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:srgbClr val="745806"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -750,24 +1271,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>random!$B$7:$F$7</c:f>
+              <c:f>random!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.3199999999999999E-4</c:v>
+                  <c:v>5.1999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.222E-3</c:v>
+                  <c:v>1.6100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0080000000000003E-3</c:v>
+                  <c:v>4.95E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4012999999999999E-2</c:v>
+                  <c:v>1.892E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5519999999999998E-2</c:v>
+                  <c:v>9.3779999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,16 +1296,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{00000009-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>random!$A$8</c:f>
+              <c:f>random!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,31 +1317,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -852,7 +1362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>random!$B$8:$F$8</c:f>
+              <c:f>random!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -877,7 +1387,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{0000000A-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flashsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>random!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>random!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.07E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0790000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2252000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1051,7 +1654,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> gian thực thi (giây)</a:t>
+                  <a:t> gain thực thi (giây)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1227,9 +1830,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="vi-VN"/>
-              <a:t>Đầu vào đã được sắp xếp</a:t>
+              <a:rPr lang="en-US" sz="2500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Đầu</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vào đã được sắp xếp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1282,7 +1899,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1290,14 +1910,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1383,7 +2003,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1460,7 +2080,579 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Binary Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1924000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1189999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4430000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6582000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85170900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4563030000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.365589999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.23E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6600000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shellsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.17E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6280000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9950000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9966999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.106E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6670000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2305999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8656999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.02E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4060000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2910000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4312000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1469,7 +2661,7 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1482,13 +2674,13 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1521,24 +2713,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sorted!$B$4:$F$4</c:f>
+              <c:f>sorted!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.4430000000000009E-3</c:v>
+                  <c:v>6.6000000000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6582000000000001E-2</c:v>
+                  <c:v>2.32E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85170900000000005</c:v>
+                  <c:v>7.3800000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4563030000000001</c:v>
+                  <c:v>2.8869999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.365589999999997</c:v>
+                  <c:v>8.9840000000000007E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,20 +2738,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63BD-1F42-9E56-B98DA0AE9CD9}"/>
+              <c16:uniqueId val="{00000008-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>sorted!$A$5</c:f>
+              <c:f>sorted!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heapsort</c:v>
+                  <c:v>Counting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1567,193 +2759,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>sorted!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>sorted!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.106E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6670000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2305999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8656999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63BD-1F42-9E56-B98DA0AE9CD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sorted!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0078"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0078"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>sorted!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>sorted!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.02E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3099999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4060000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2910000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4312000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-711E-664E-B791-421CF581F55D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sorted!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="745806"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1766,7 +2772,7 @@
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:srgbClr val="745806"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1798,24 +2804,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sorted!$B$7:$F$7</c:f>
+              <c:f>sorted!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.6000000000000005E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.32E-4</c:v>
+                  <c:v>1.16E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3800000000000005E-4</c:v>
+                  <c:v>3.4499999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8869999999999998E-3</c:v>
+                  <c:v>1.1620000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9840000000000007E-3</c:v>
+                  <c:v>3.5270000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,16 +2829,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{00000009-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>sorted!$A$8</c:f>
+              <c:f>sorted!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1844,31 +2850,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1900,7 +2895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sorted!$B$8:$F$8</c:f>
+              <c:f>sorted!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1925,7 +2920,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{0000000A-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sorted!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flashsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sorted!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.756E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5640000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2275,9 +3363,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="vi-VN"/>
-              <a:t>Đầu vào có thứ tự ngược</a:t>
+              <a:rPr lang="en-US" sz="2500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Đầu</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vào có thứ tự ngược </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2330,7 +3432,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2338,14 +3443,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2431,7 +3536,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2508,7 +3613,579 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Binary Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1209999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8177000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79041399999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4993320000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.457582000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9673999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33098899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9956260000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.2425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.85626999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2793000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.368149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2166540000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.029803000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.53586799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shellsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.66E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5799999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.835E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.091E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6080000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2192E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7955000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.52E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.428E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2656000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2376000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2517,7 +4194,7 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2530,13 +4207,13 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -2569,24 +4246,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reverse!$B$4:$F$4</c:f>
+              <c:f>reverse!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9673999999999999E-2</c:v>
+                  <c:v>6.9999999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33098899999999998</c:v>
+                  <c:v>3.3E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9956260000000001</c:v>
+                  <c:v>8.2700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.2425</c:v>
+                  <c:v>3.0639999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302.85626999999999</c:v>
+                  <c:v>9.4479999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,20 +4271,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63BD-1F42-9E56-B98DA0AE9CD9}"/>
+              <c16:uniqueId val="{00000008-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>reverse!$A$5</c:f>
+              <c:f>reverse!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heapsort</c:v>
+                  <c:v>Counting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2615,193 +4292,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>reverse!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>reverse!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.5100000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.091E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6080000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2192E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7955000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63BD-1F42-9E56-B98DA0AE9CD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reverse!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0078"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0078"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>reverse!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>reverse!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.52E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.428E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2656000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2376000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-711E-664E-B791-421CF581F55D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reverse!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="745806"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2814,7 +4305,7 @@
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:srgbClr val="745806"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2846,24 +4337,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reverse!$B$7:$F$7</c:f>
+              <c:f>reverse!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.9999999999999994E-5</c:v>
+                  <c:v>4.1999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3E-4</c:v>
+                  <c:v>1.5699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2700000000000004E-4</c:v>
+                  <c:v>3.68E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0639999999999999E-3</c:v>
+                  <c:v>1.212E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4479999999999998E-3</c:v>
+                  <c:v>3.6719999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,16 +4362,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{00000009-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>reverse!$A$8</c:f>
+              <c:f>reverse!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2892,31 +4383,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2948,7 +4428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reverse!$B$8:$F$8</c:f>
+              <c:f>reverse!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2973,7 +4453,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{0000000A-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reverse!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flashsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reverse!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reverse!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8710000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1826E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3323,9 +4896,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="vi-VN"/>
-              <a:t>Đầu vào gần như có thứ tự</a:t>
+              <a:rPr lang="en-US" sz="2500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Đầu</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vào gần như có thứ tự</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3378,7 +4965,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3386,14 +4976,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3479,7 +5069,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -3556,7 +5146,579 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Binary Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.024E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.558E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2153000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4428000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.7329999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6643000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85720399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5073080000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.635152000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.374E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8479999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0181999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-1574-3C41-AA40-1BFC3B61E261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shellsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.36E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.385E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9409999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0478000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.091E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6080000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2192E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7955000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.52E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.428E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2656000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2376000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3565,7 +5727,7 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3578,13 +5740,13 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -3617,24 +5779,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nearly!$B$4:$F$4</c:f>
+              <c:f>nearly!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.7329999999999994E-3</c:v>
+                  <c:v>6.9999999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6643000000000007E-2</c:v>
+                  <c:v>3.3E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85720399999999997</c:v>
+                  <c:v>8.2700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5073080000000001</c:v>
+                  <c:v>3.0639999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.635152000000005</c:v>
+                  <c:v>9.4479999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,20 +5804,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63BD-1F42-9E56-B98DA0AE9CD9}"/>
+              <c16:uniqueId val="{00000008-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>nearly!$A$5</c:f>
+              <c:f>nearly!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heapsort</c:v>
+                  <c:v>Counting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3663,193 +5825,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nearly!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nearly!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.5100000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.091E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6080000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2192E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7955000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63BD-1F42-9E56-B98DA0AE9CD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nearly!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0078"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0078"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nearly!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nearly!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.52E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.428E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2656000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2376000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-711E-664E-B791-421CF581F55D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nearly!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="745806"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3862,7 +5838,7 @@
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:srgbClr val="745806"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3894,24 +5870,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nearly!$B$7:$F$7</c:f>
+              <c:f>nearly!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.9999999999999994E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3E-4</c:v>
+                  <c:v>1.2E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2700000000000004E-4</c:v>
+                  <c:v>3.4600000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0639999999999999E-3</c:v>
+                  <c:v>1.183E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4479999999999998E-3</c:v>
+                  <c:v>3.5149999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,16 +5895,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{00000009-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>nearly!$A$8</c:f>
+              <c:f>nearly!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3940,31 +5916,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="plus"/>
+            <c:size val="18"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3996,7 +5961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nearly!$B$8:$F$8</c:f>
+              <c:f>nearly!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4021,7 +5986,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-711E-664E-B791-421CF581F55D}"/>
+              <c16:uniqueId val="{0000000A-995D-8245-BCFB-4840DD3F6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nearly!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flashsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nearly!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nearly!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5140000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9959999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-995D-8245-BCFB-4840DD3F6C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4074,11 +6132,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Kíc</a:t>
+                  <a:t>Kích</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>h thước đầu vào</a:t>
+                  <a:t> thước đầu vào</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4195,7 +6253,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> gian thực thi (giây)</a:t>
+                  <a:t> gain thực thi (giây)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6568,22 +8626,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>11044</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>13956</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>13955</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B96004A-A2C6-5E4B-B99D-2AF578C81B7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C975A3E6-63AF-C745-99CC-77033EB0F804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6609,22 +8667,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1936</xdr:colOff>
+      <xdr:colOff>4512</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2988</xdr:rowOff>
+      <xdr:rowOff>4701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11140</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF33AA-2F93-5C4C-90B6-9D39AF512A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B48DFE-F185-5246-BA99-6C9A9CFF4439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6650,22 +8708,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>6592</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>11545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDA494C-3050-4A48-8240-0A3D4DC85C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD25C43-47FB-B847-B870-5DEA169B7049}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6691,22 +8749,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5941</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>198072</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>11652</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>186422</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8527F4F5-01B2-AB45-A4D9-95DD4AB98908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB0DB00-8126-9A4A-A20D-C2D3C885A16E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8168,15 +10226,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7BA8D3-AF99-D54F-9F73-BEECDFB6DC96}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="319" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -8225,7 +10283,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5.0540000000000003E-3</v>
       </c>
       <c r="C3" s="3">
@@ -8243,293 +10301,393 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>2.8309999999999998E-2</v>
+        <v>6.2989999999999999E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>0.33071299999999998</v>
+        <v>4.8707E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>3.2599209999999998</v>
+        <v>0.39372499999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>35.165768</v>
+        <v>4.451651</v>
       </c>
       <c r="F4" s="3">
-        <v>317.55030099999999</v>
+        <v>38.537260000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.8400000000000001E-4</v>
+        <v>2.8309999999999998E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>1.454E-3</v>
+        <v>0.33071299999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>5.0829999999999998E-3</v>
+        <v>3.2599209999999998</v>
       </c>
       <c r="E5" s="3">
-        <v>1.821E-2</v>
+        <v>35.165768</v>
       </c>
       <c r="F5" s="3">
-        <v>6.4409999999999995E-2</v>
+        <v>317.55030099999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>4.5899999999999999E-4</v>
+        <v>2.5742000000000001E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>1.717E-3</v>
+        <v>0.26645600000000003</v>
       </c>
       <c r="D6" s="3">
-        <v>5.9560000000000004E-3</v>
+        <v>2.4172259999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>1.8147E-2</v>
+        <v>27.027754000000002</v>
       </c>
       <c r="F6" s="3">
-        <v>6.4243999999999996E-2</v>
+        <v>247.34417099999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>3.3199999999999999E-4</v>
+        <v>4.7600000000000002E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>1.222E-3</v>
+        <v>1.8619999999999999E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>4.0080000000000003E-3</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>1.4012999999999999E-2</v>
+        <v>2.6322000000000002E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>4.5519999999999998E-2</v>
+        <v>9.2173000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>1.7000000000000001E-4</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>4.84E-4</v>
+        <v>1.454E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>1.7719999999999999E-3</v>
+        <v>5.0829999999999998E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>5.875E-3</v>
+        <v>1.821E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>1.9571000000000002E-2</v>
+        <v>6.4409999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.717E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.9560000000000004E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.8147E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.4243999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.222E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.0080000000000003E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.4012999999999999E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.5519999999999998E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.95E-4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.892E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.3779999999999992E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.84E-4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.7719999999999999E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.875E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.9571000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.07E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.16E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.0790000000000002E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.2252000000000001E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8539,13 +10697,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B08754-1E6B-D148-BE84-085D96586F05}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="319" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -8589,7 +10750,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="C3" s="3">
@@ -8607,102 +10768,202 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>8.4430000000000009E-3</v>
+        <v>2.7799999999999998E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>9.6582000000000001E-2</v>
+        <v>9.5E-4</v>
       </c>
       <c r="D4" s="3">
-        <v>0.85170900000000005</v>
+        <v>3.1410000000000001E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>9.4563030000000001</v>
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>85.365589999999997</v>
+        <v>4.1189999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.2400000000000001E-4</v>
+        <v>8.4430000000000009E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>1.106E-3</v>
+        <v>9.6582000000000001E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>3.6670000000000001E-3</v>
+        <v>0.85170900000000005</v>
       </c>
       <c r="E5" s="3">
-        <v>1.2305999999999999E-2</v>
+        <v>9.4563030000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>3.8656999999999997E-2</v>
+        <v>85.365589999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>2.02E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="C6" s="3">
-        <v>7.3099999999999999E-4</v>
+        <v>2.9E-5</v>
       </c>
       <c r="D6" s="3">
-        <v>2.4060000000000002E-3</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="E6" s="3">
-        <v>9.2910000000000006E-3</v>
+        <v>2.23E-4</v>
       </c>
       <c r="F6" s="3">
-        <v>3.4312000000000002E-2</v>
+        <v>6.6600000000000003E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>6.6000000000000005E-5</v>
+        <v>1.17E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>2.32E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="D7" s="3">
-        <v>7.3800000000000005E-4</v>
+        <v>1.6280000000000001E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>2.8869999999999998E-3</v>
+        <v>5.9950000000000003E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>8.9840000000000007E-3</v>
+        <v>1.9966999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.106E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.6670000000000001E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2305999999999999E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.8656999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.02E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.4060000000000002E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.2910000000000006E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.4312000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.32E-4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.8869999999999998E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.9840000000000007E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.16E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.1620000000000001E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5270000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <v>1.8200000000000001E-4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="3">
         <v>7.27E-4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D12" s="3">
         <v>1.7949999999999999E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E12" s="3">
         <v>6.8910000000000004E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F12" s="3">
         <v>2.1416999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.2399999999999999E-4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.756E-3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.5640000000000004E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8713,13 +10974,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB11A78-F75F-454E-9FD1-14ABC034ECE2}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="317" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -8763,7 +11027,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>9.3480000000000004E-3</v>
       </c>
       <c r="C3" s="3">
@@ -8781,102 +11045,202 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>2.9673999999999999E-2</v>
+        <v>8.1209999999999997E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>0.33098899999999998</v>
+        <v>8.8177000000000005E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>2.9956260000000001</v>
+        <v>0.79041399999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>33.2425</v>
+        <v>8.4993320000000008</v>
       </c>
       <c r="F4" s="3">
-        <v>302.85626999999999</v>
+        <v>76.457582000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.5100000000000002E-4</v>
+        <v>2.9673999999999999E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>1.091E-3</v>
+        <v>0.33098899999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>3.6080000000000001E-3</v>
+        <v>2.9956260000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>1.2192E-2</v>
+        <v>33.2425</v>
       </c>
       <c r="F5" s="3">
-        <v>3.7955000000000003E-2</v>
+        <v>302.85626999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>2.52E-4</v>
+        <v>3.2793000000000003E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>0.368149</v>
       </c>
       <c r="D6" s="3">
-        <v>2.428E-3</v>
+        <v>3.2166540000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>1.2656000000000001E-2</v>
+        <v>35.029803000000001</v>
       </c>
       <c r="F6" s="3">
-        <v>3.2376000000000002E-2</v>
+        <v>312.53586799999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>1.66E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>3.3E-4</v>
+        <v>6.5799999999999995E-4</v>
       </c>
       <c r="D7" s="3">
-        <v>8.2700000000000004E-4</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>3.0639999999999999E-3</v>
+        <v>7.835E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>9.4479999999999998E-3</v>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
+        <v>3.5100000000000002E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.091E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.6080000000000001E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2192E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.7955000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.52E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.428E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.2656000000000001E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.2376000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.3E-4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.0639999999999999E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.4479999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.68E-4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.212E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.6719999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="3">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D12" s="3">
         <v>2.0089999999999999E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E12" s="3">
         <v>6.3769999999999999E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F12" s="3">
         <v>2.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.8710000000000001E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1826E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8887,13 +11251,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3493ECC5-FE67-2940-B075-1F83B3DCEB46}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="331" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -8937,7 +11304,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="C3" s="3">
@@ -8955,102 +11322,202 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>8.7329999999999994E-3</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>9.6643000000000007E-2</v>
+        <v>1.024E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>0.85720399999999997</v>
+        <v>3.558E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>9.5073080000000001</v>
+        <v>1.2153000000000001E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>85.635152000000005</v>
+        <v>4.4428000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.5100000000000002E-4</v>
+        <v>8.7329999999999994E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>1.091E-3</v>
+        <v>9.6643000000000007E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>3.6080000000000001E-3</v>
+        <v>0.85720399999999997</v>
       </c>
       <c r="E5" s="3">
-        <v>1.2192E-2</v>
+        <v>9.5073080000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>3.7955000000000003E-2</v>
+        <v>85.635152000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>2.52E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="C6" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>6.0899999999999995E-4</v>
       </c>
       <c r="D6" s="3">
-        <v>2.428E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>1.2656000000000001E-2</v>
+        <v>4.8479999999999999E-3</v>
       </c>
       <c r="F6" s="3">
-        <v>3.2376000000000002E-2</v>
+        <v>2.0181999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>2.13E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>3.3E-4</v>
+        <v>7.36E-4</v>
       </c>
       <c r="D7" s="3">
-        <v>8.2700000000000004E-4</v>
+        <v>2.385E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>3.0639999999999999E-3</v>
+        <v>8.9409999999999993E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>9.4479999999999998E-3</v>
+        <v>3.0478000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
+        <v>3.5100000000000002E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.091E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.6080000000000001E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2192E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.7955000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.52E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.428E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.2656000000000001E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.2376000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.3E-4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.0639999999999999E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.4479999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.2E-4</v>
+      </c>
+      <c r="D11" s="3">
         <v>3.4600000000000001E-4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="E11" s="3">
+        <v>1.183E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5149999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.4600000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
         <v>1.085E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D12" s="3">
         <v>3.424E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E12" s="3">
         <v>1.2248E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F12" s="3">
         <v>3.8656000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.6400000000000001E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.4700000000000005E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5140000000000002E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.9959999999999996E-3</v>
       </c>
     </row>
   </sheetData>
